--- a/樊志强/2.编码进度表—樊志强.xlsx
+++ b/樊志强/2.编码进度表—樊志强.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hgkj_01\樊志强\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitt\hgkj_01\樊志强\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C8B112-0173-40B8-BC09-E75A6438AE8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8286BD2-69DD-4660-A2E5-A68D6DC225E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="195" windowWidth="16800" windowHeight="10425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊志强" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="59">
   <si>
     <t>整体模块</t>
   </si>
@@ -337,90 +337,6 @@
   </si>
   <si>
     <t>2019.07.05</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>店长</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>019.06.25</t>
-    </r>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.06.25</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.06.24</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工信息管理</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色管理</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.06.26</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限管理</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工补贴记录管理</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.06.27</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工奖项记录管理</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>三种身份的不同操作权限</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>没具体完成时间，过程中有思路进行操作，2019.06.27进行统一讨论</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>后期优化</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>对系统和界面的优化</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>一直到项目完成那天</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -988,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1071,6 +987,30 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,48 +1028,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1161,74 +1059,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1248,7 +1078,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1572,7 +1402,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:H14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1589,16 +1419,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1887,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3707D92E-61F7-4833-8287-5084CF6F899D}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1905,16 +1735,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2213,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0384D6-2B24-439D-BB84-035F7C45464C}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2231,16 +2061,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2566,16 +2396,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2900,8 +2730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824833B9-B9D9-4554-B40A-4DEFC72F3AF1}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2918,333 +2748,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38">
-        <v>0</v>
-      </c>
-      <c r="G3" s="39" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32">
+        <v>0</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="40"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38">
-        <v>0</v>
-      </c>
-      <c r="G4" s="39" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32">
+        <v>0</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38">
-        <v>0</v>
-      </c>
-      <c r="G5" s="39" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32">
+        <v>0</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="40"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38">
-        <v>0</v>
-      </c>
-      <c r="G6" s="39" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32">
+        <v>0</v>
+      </c>
+      <c r="G6" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="40"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38">
-        <v>0</v>
-      </c>
-      <c r="G7" s="39" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32">
+        <v>0</v>
+      </c>
+      <c r="G7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="40"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38">
-        <v>0</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="40"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38">
-        <v>0</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="40"/>
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="38">
+      <c r="A10" s="11"/>
+      <c r="B10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="40"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="38">
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="39"/>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38">
-        <v>0</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="39"/>
+      <c r="A12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="23">
+        <v>1</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38">
-        <v>0</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38">
-        <v>0</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="39"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="23">
+        <v>1</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="23">
+        <v>1</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="38">
-        <v>0</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="39"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38">
-        <v>0</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="39"/>
+      <c r="A15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3252,6 +3066,7 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3277,16 +3092,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3633,16 +3448,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">

--- a/樊志强/2.编码进度表—樊志强.xlsx
+++ b/樊志强/2.编码进度表—樊志强.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitt\hgkj_01\樊志强\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hgkj_01\樊志强\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8286BD2-69DD-4660-A2E5-A68D6DC225E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576B4506-9E15-4F43-AC91-D5401A57A78F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="195" windowWidth="16800" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊志强" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="63">
   <si>
     <t>整体模块</t>
   </si>
@@ -338,6 +338,21 @@
   <si>
     <t>2019.07.05</t>
     <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.6.26</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.6.27</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.27</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -904,7 +919,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -967,9 +982,6 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="24" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1059,6 +1071,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1078,7 +1158,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1401,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1419,16 +1499,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1560,13 +1640,17 @@
       <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -1578,14 +1662,16 @@
       <c r="C9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="24" t="s">
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="18"/>
@@ -1628,10 +1714,10 @@
       <c r="E11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>1</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="18"/>
@@ -1650,10 +1736,10 @@
       <c r="E12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>1</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="15"/>
@@ -1662,10 +1748,10 @@
       <c r="A13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -1674,10 +1760,10 @@
       <c r="E13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>1</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="15"/>
@@ -1686,18 +1772,18 @@
       <c r="A14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="15"/>
@@ -1717,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3707D92E-61F7-4833-8287-5084CF6F899D}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1735,16 +1821,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1876,13 +1962,17 @@
       <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -1894,14 +1984,16 @@
       <c r="C9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="24" t="s">
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="18"/>
@@ -1944,10 +2036,10 @@
       <c r="E11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>1</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="18"/>
@@ -1966,10 +2058,10 @@
       <c r="E12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>1</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="15"/>
@@ -1978,10 +2070,10 @@
       <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -1990,10 +2082,10 @@
       <c r="E13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>1</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="15"/>
@@ -2002,18 +2094,18 @@
       <c r="A14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="15"/>
@@ -2061,16 +2153,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2232,10 +2324,10 @@
       <c r="E9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>0.5</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="18"/>
@@ -2278,10 +2370,10 @@
       <c r="E11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>1</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="18"/>
@@ -2300,10 +2392,10 @@
       <c r="E12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>1</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="15"/>
@@ -2312,10 +2404,10 @@
       <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -2324,10 +2416,10 @@
       <c r="E13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>1</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="15"/>
@@ -2336,18 +2428,18 @@
       <c r="A14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="15"/>
@@ -2378,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE8D864-47D2-4263-8740-93CAADA3C084}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2396,16 +2488,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2553,13 +2645,17 @@
       <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H9" s="13"/>
     </row>
@@ -2579,10 +2675,10 @@
       <c r="E10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>1</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="18"/>
@@ -2595,13 +2691,17 @@
       <c r="C11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>8</v>
+      <c r="D11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="H11" s="15"/>
     </row>
@@ -2615,10 +2715,10 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="15"/>
@@ -2633,10 +2733,10 @@
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="24" t="s">
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="15"/>
@@ -2651,10 +2751,10 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="15"/>
@@ -2669,10 +2769,10 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="23">
-        <v>0</v>
-      </c>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="15"/>
@@ -2681,19 +2781,23 @@
       <c r="A16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="23">
-        <v>0</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>8</v>
+      <c r="D16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="H16" s="15"/>
     </row>
@@ -2701,18 +2805,18 @@
       <c r="A17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="23">
-        <v>0</v>
-      </c>
-      <c r="G17" s="24" t="s">
+      <c r="F17" s="22">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="15"/>
@@ -2723,6 +2827,7 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2730,7 +2835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824833B9-B9D9-4554-B40A-4DEFC72F3AF1}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2748,133 +2853,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32">
-        <v>0</v>
-      </c>
-      <c r="G3" s="33" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31">
+        <v>0</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32">
-        <v>0</v>
-      </c>
-      <c r="G4" s="33" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31">
+        <v>0</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32">
-        <v>0</v>
-      </c>
-      <c r="G5" s="33" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31">
+        <v>0</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="34"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32">
-        <v>0</v>
-      </c>
-      <c r="G6" s="33" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32">
-        <v>0</v>
-      </c>
-      <c r="G7" s="33" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -2932,10 +3037,10 @@
       <c r="E10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>0.5</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="18"/>
@@ -2978,10 +3083,10 @@
       <c r="E12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>1</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="18"/>
@@ -3000,10 +3105,10 @@
       <c r="E13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>1</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="15"/>
@@ -3012,10 +3117,10 @@
       <c r="A14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -3024,10 +3129,10 @@
       <c r="E14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>1</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="15"/>
@@ -3036,18 +3141,18 @@
       <c r="A15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="23">
-        <v>0</v>
-      </c>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="15"/>
@@ -3074,8 +3179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13D4A04-C788-4B14-A8EB-6D7BE663C7E3}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3092,16 +3197,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3279,10 +3384,10 @@
       <c r="E10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>1</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="18"/>
@@ -3297,10 +3402,10 @@
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="15"/>
@@ -3315,10 +3420,10 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="15"/>
@@ -3333,10 +3438,10 @@
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="24" t="s">
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="15"/>
@@ -3351,10 +3456,10 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="15"/>
@@ -3369,10 +3474,10 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="23">
-        <v>0</v>
-      </c>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="15"/>
@@ -3381,18 +3486,22 @@
       <c r="A16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="23">
-        <v>0</v>
-      </c>
-      <c r="G16" s="24" t="s">
+      <c r="D16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="15"/>
@@ -3401,18 +3510,18 @@
       <c r="A17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="23">
-        <v>0</v>
-      </c>
-      <c r="G17" s="24" t="s">
+      <c r="F17" s="22">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="15"/>
@@ -3430,8 +3539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA70935-08DC-4874-BF9B-F503B45C0051}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3448,16 +3557,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3631,10 +3740,10 @@
       <c r="E10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>1</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="18"/>
@@ -3647,12 +3756,16 @@
       <c r="C11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="D11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="15"/>
@@ -3667,10 +3780,10 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="15"/>
@@ -3685,10 +3798,10 @@
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="24" t="s">
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="15"/>
@@ -3703,10 +3816,10 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="15"/>
@@ -3721,10 +3834,10 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="23">
-        <v>0</v>
-      </c>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="15"/>
@@ -3733,38 +3846,44 @@
       <c r="A16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="23">
-        <v>0</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="15"/>
+      <c r="D16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="23">
-        <v>0</v>
-      </c>
-      <c r="G17" s="24" t="s">
+      <c r="F17" s="22">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="15"/>

--- a/樊志强/2.编码进度表—樊志强.xlsx
+++ b/樊志强/2.编码进度表—樊志强.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hgkj_01\樊志强\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576B4506-9E15-4F43-AC91-D5401A57A78F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4878190-F12C-4537-96CA-BE7156C161A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="195" windowWidth="16800" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="720" windowWidth="16800" windowHeight="10425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊志强" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="65">
   <si>
     <t>整体模块</t>
   </si>
@@ -352,6 +352,14 @@
   </si>
   <si>
     <t>修改密码</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.28</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.29</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1803,7 +1811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3707D92E-61F7-4833-8287-5084CF6F899D}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2135,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0384D6-2B24-439D-BB84-035F7C45464C}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2200,13 +2208,17 @@
       <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H3" s="13"/>
     </row>
@@ -2236,13 +2248,17 @@
       <c r="C5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H5" s="13"/>
     </row>
@@ -2254,13 +2270,17 @@
       <c r="C6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H6" s="13"/>
     </row>

--- a/樊志强/2.编码进度表—樊志强.xlsx
+++ b/樊志强/2.编码进度表—樊志强.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hgkj_01\樊志强\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4878190-F12C-4537-96CA-BE7156C161A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3FD1D5-41AF-4E58-814D-3BBBF1F28807}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="720" windowWidth="16800" windowHeight="10425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="495" windowWidth="16800" windowHeight="10425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊志强" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="66">
   <si>
     <t>整体模块</t>
   </si>
@@ -360,6 +360,10 @@
   </si>
   <si>
     <t>2019.06.29</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.30</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -2143,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0384D6-2B24-439D-BB84-035F7C45464C}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2230,13 +2234,17 @@
       <c r="C4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="F4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H4" s="13"/>
     </row>

--- a/樊志强/2.编码进度表—樊志强.xlsx
+++ b/樊志强/2.编码进度表—樊志强.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hgkj_01\樊志强\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitt\hgkj_01\樊志强\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3FD1D5-41AF-4E58-814D-3BBBF1F28807}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB6E944-8FF1-45FF-A794-B18B6B0A3F1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="495" windowWidth="16800" windowHeight="10425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊志强" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="66">
   <si>
     <t>整体模块</t>
   </si>
@@ -332,39 +332,39 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>工资管理</t>
+    <t>2019.6.26</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.6.27</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.27</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.28</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.29</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.30</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.30</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.07.05</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.6.26</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.6.27</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.06.27</t>
-  </si>
-  <si>
-    <t>修改密码</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.06.28</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.06.29</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.06.30</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1083,74 +1083,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1170,7 +1102,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1493,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2147,7 +2079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0384D6-2B24-439D-BB84-035F7C45464C}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2213,10 +2145,10 @@
         <v>27</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -2235,10 +2167,10 @@
         <v>28</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
@@ -2257,10 +2189,10 @@
         <v>29</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
@@ -2279,10 +2211,10 @@
         <v>30</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -2674,10 +2606,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
@@ -2720,10 +2652,10 @@
         <v>24</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="22">
         <v>1</v>
@@ -2816,10 +2748,10 @@
         <v>36</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F16" s="22">
         <v>1</v>
@@ -2863,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824833B9-B9D9-4554-B40A-4DEFC72F3AF1}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2982,48 +2914,60 @@
       <c r="C6" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="F6" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31">
-        <v>0</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="33"/>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -3031,85 +2975,85 @@
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="13"/>
+      <c r="B9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="23" t="s">
+      <c r="E10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="D11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>24</v>
+      <c r="E12" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="F12" s="22">
         <v>1</v>
@@ -3117,21 +3061,21 @@
       <c r="G12" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
-      <c r="B13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>23</v>
+      <c r="B13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="F13" s="22">
         <v>1</v>
@@ -3141,27 +3085,23 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>24</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -3169,29 +3109,14 @@
       <c r="A15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="22">
-        <v>0</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="15"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3881,10 +3806,10 @@
         <v>36</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F16" s="22">
         <v>0.6</v>
@@ -3893,7 +3818,7 @@
         <v>8</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">

--- a/樊志强/2.编码进度表—樊志强.xlsx
+++ b/樊志强/2.编码进度表—樊志强.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitt\hgkj_01\樊志强\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB6E944-8FF1-45FF-A794-B18B6B0A3F1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30165E54-A433-494C-B7EE-08928451AB66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊志强" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="91">
   <si>
     <t>整体模块</t>
   </si>
@@ -332,14 +332,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>2019.6.26</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.6.27</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>2019.06.27</t>
   </si>
   <si>
@@ -365,6 +357,123 @@
   <si>
     <t>完成</t>
     <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+  </si>
+  <si>
+    <t>系统管理</t>
+  </si>
+  <si>
+    <r>
+      <t>2019.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.29</t>
+    </r>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>参数管理</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>019.07.02</t>
+    </r>
+  </si>
+  <si>
+    <t>员工管理</t>
+  </si>
+  <si>
+    <t>2019.07.03</t>
+  </si>
+  <si>
+    <t>员工考勤</t>
+  </si>
+  <si>
+    <t>2019.07.04</t>
+  </si>
+  <si>
+    <t>2019.6.30</t>
+  </si>
+  <si>
+    <t>工资管理</t>
+  </si>
+  <si>
+    <t>2019.07.05</t>
+  </si>
+  <si>
+    <t>店长</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>019.06.25</t>
+    </r>
+  </si>
+  <si>
+    <t>2019.6.29</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>工资查询</t>
+  </si>
+  <si>
+    <t>2019.06.25</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>员工</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>三种身份的不同操作权限</t>
+  </si>
+  <si>
+    <t>没具体完成时间，过程中有思路进行操作，2019.06.27进行统一讨论</t>
+  </si>
+  <si>
+    <t>后期优化</t>
+  </si>
+  <si>
+    <t>对系统和界面的优化</t>
+  </si>
+  <si>
+    <t>一直到项目完成那天</t>
   </si>
 </sst>
 </file>
@@ -931,7 +1040,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1052,6 +1161,61 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1747,7 +1911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3707D92E-61F7-4833-8287-5084CF6F899D}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2145,10 +2309,10 @@
         <v>27</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -2167,10 +2331,10 @@
         <v>28</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
@@ -2189,10 +2353,10 @@
         <v>29</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
@@ -2211,10 +2375,10 @@
         <v>30</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -2430,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE8D864-47D2-4263-8740-93CAADA3C084}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2486,300 +2650,270 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
+      <c r="A3" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55">
+        <v>0</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>67</v>
       </c>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="43"/>
+      <c r="B4" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55">
+        <v>0</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>67</v>
       </c>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
+      <c r="A5" s="43"/>
+      <c r="B5" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55">
+        <v>0</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>67</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
+      <c r="A6" s="43"/>
+      <c r="B6" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>67</v>
       </c>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
+      <c r="A7" s="44"/>
+      <c r="B7" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="55">
+        <v>0</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>67</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
+      <c r="A8" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="55">
+        <v>1</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>80</v>
       </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>41</v>
+      <c r="A9" s="46"/>
+      <c r="B9" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="55">
+        <v>1</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>80</v>
       </c>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="22">
-        <v>1</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>41</v>
+      <c r="A10" s="45"/>
+      <c r="B10" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="55">
+        <v>1</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>80</v>
       </c>
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="22">
-        <v>1</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>41</v>
+      <c r="A11" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="55">
+        <v>1</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>80</v>
       </c>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="22">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>8</v>
+      <c r="A12" s="47"/>
+      <c r="B12" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="55">
+        <v>1</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>80</v>
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>8</v>
+    <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A13" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="55">
+        <v>1</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>80</v>
       </c>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="22">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>8</v>
+      <c r="A14" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="55">
+        <v>0</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>67</v>
       </c>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="22">
-        <v>0</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="22">
-        <v>1</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="22">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="15"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2795,7 +2929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824833B9-B9D9-4554-B40A-4DEFC72F3AF1}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -2915,16 +3049,16 @@
         <v>56</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" s="31">
         <v>1</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6" s="33"/>
     </row>
@@ -2936,10 +3070,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -3806,10 +3940,10 @@
         <v>36</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F16" s="22">
         <v>0.6</v>
@@ -3818,7 +3952,7 @@
         <v>8</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">

--- a/樊志强/2.编码进度表—樊志强.xlsx
+++ b/樊志强/2.编码进度表—樊志强.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitt\hgkj_01\樊志强\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30165E54-A433-494C-B7EE-08928451AB66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE85093-56B5-478C-BDD0-5962BCA3244D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20490" windowHeight="10695" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊志强" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="95">
   <si>
     <t>整体模块</t>
   </si>
@@ -245,22 +245,6 @@
   </si>
   <si>
     <t>2019.06.25</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>019.06.25</t>
-    </r>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -474,6 +458,25 @@
   </si>
   <si>
     <t>一直到项目完成那天</t>
+  </si>
+  <si>
+    <t>2019.07.01</t>
+  </si>
+  <si>
+    <t>2019.07.01</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.07.01</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1144,24 +1147,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1216,6 +1201,24 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1590,7 +1593,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1607,16 +1610,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1654,13 +1657,17 @@
       <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H3" s="13"/>
     </row>
@@ -1672,13 +1679,17 @@
       <c r="C4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="F4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H4" s="13"/>
     </row>
@@ -1691,9 +1702,11 @@
         <v>29</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
@@ -1726,12 +1739,14 @@
       <c r="C7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="E7" s="12" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>41</v>
@@ -1752,7 +1767,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
@@ -1929,16 +1944,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2261,16 +2276,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2309,10 +2324,10 @@
         <v>27</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -2331,10 +2346,10 @@
         <v>28</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
@@ -2353,10 +2368,10 @@
         <v>29</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
@@ -2375,10 +2390,10 @@
         <v>30</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -2594,8 +2609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE8D864-47D2-4263-8740-93CAADA3C084}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2612,16 +2627,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2650,256 +2665,260 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="C3" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55">
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="49">
+        <v>1</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49">
         <v>0</v>
       </c>
-      <c r="G3" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55">
+      <c r="G5" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
+      <c r="B7" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="49">
         <v>0</v>
       </c>
-      <c r="G4" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="53" t="s">
+      <c r="G7" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55">
+      <c r="C8" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="49">
+        <v>1</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
+      <c r="B9" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="49">
+        <v>1</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="39"/>
+      <c r="B10" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="49">
+        <v>1</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="49">
+        <v>1</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="41"/>
+      <c r="B12" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="49">
+        <v>1</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="49">
+        <v>1</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="49">
         <v>0</v>
       </c>
-      <c r="G5" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="55">
-        <v>0.8</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="55">
-        <v>0</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="55">
-        <v>1</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="55">
-        <v>1</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="55">
-        <v>1</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="55">
-        <v>1</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
-      <c r="B12" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="55">
-        <v>1</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="55">
-        <v>1</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="55">
-        <v>0</v>
-      </c>
-      <c r="G14" s="56" t="s">
-        <v>67</v>
+      <c r="G14" s="50" t="s">
+        <v>66</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -2930,7 +2949,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2947,16 +2966,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
+      <c r="A1" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
@@ -2986,79 +3005,91 @@
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="D3" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>49</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31">
-        <v>0</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>50</v>
       </c>
       <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34"/>
       <c r="B4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>92</v>
+      </c>
       <c r="F4" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="D5" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>92</v>
+      </c>
       <c r="F5" s="31">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
       <c r="B6" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>56</v>
-      </c>
       <c r="D6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="31">
+        <v>1</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>62</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="31">
-        <v>1</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>63</v>
       </c>
       <c r="H6" s="33"/>
     </row>
@@ -3070,10 +3101,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -3266,8 +3297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13D4A04-C788-4B14-A8EB-6D7BE663C7E3}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3284,16 +3315,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3487,13 +3518,17 @@
       <c r="C11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="F11" s="22">
-        <v>0</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>41</v>
       </c>
       <c r="H11" s="15"/>
     </row>
@@ -3505,13 +3540,17 @@
       <c r="C12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="F12" s="22">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>41</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -3523,13 +3562,17 @@
       <c r="C13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>41</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -3541,13 +3584,13 @@
       <c r="C14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="22">
         <v>0</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>8</v>
+      <c r="G14" s="50" t="s">
+        <v>41</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -3559,8 +3602,8 @@
       <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="22">
         <v>0</v>
       </c>
@@ -3626,8 +3669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA70935-08DC-4874-BF9B-F503B45C0051}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3644,16 +3687,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3727,10 +3770,14 @@
       <c r="C5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
@@ -3801,13 +3848,17 @@
       <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H9" s="13"/>
     </row>
@@ -3940,10 +3991,10 @@
         <v>36</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="22">
         <v>0.6</v>
@@ -3952,7 +4003,7 @@
         <v>8</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">

--- a/樊志强/2.编码进度表—樊志强.xlsx
+++ b/樊志强/2.编码进度表—樊志强.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitt\hgkj_01\樊志强\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE85093-56B5-478C-BDD0-5962BCA3244D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7FE43A-D9F0-4ECC-ABAB-7E658058B69A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20490" windowHeight="10695" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="465" windowWidth="20490" windowHeight="10695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊志强" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="95">
   <si>
     <t>整体模块</t>
   </si>
@@ -1592,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1926,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3707D92E-61F7-4833-8287-5084CF6F899D}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1991,13 +1991,17 @@
       <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H3" s="13"/>
     </row>
@@ -2009,13 +2013,17 @@
       <c r="C4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="F4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H4" s="13"/>
     </row>
@@ -2028,9 +2036,11 @@
         <v>29</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
@@ -2063,12 +2073,14 @@
       <c r="C7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="E7" s="12" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="F7" s="7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>41</v>
@@ -2089,7 +2101,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
@@ -2101,10 +2113,10 @@
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="47" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -2113,10 +2125,10 @@
       <c r="E9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="22">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="F9" s="49">
+        <v>1</v>
+      </c>
+      <c r="G9" s="50" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="18"/>
@@ -2147,44 +2159,44 @@
       <c r="A11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="22">
-        <v>1</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="49">
+        <v>1</v>
+      </c>
+      <c r="G11" s="50" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="22">
-        <v>1</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="F12" s="49">
+        <v>1</v>
+      </c>
+      <c r="G12" s="50" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="15"/>
@@ -2193,22 +2205,22 @@
       <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="22">
-        <v>1</v>
-      </c>
-      <c r="G13" s="23" t="s">
+      <c r="F13" s="49">
+        <v>1</v>
+      </c>
+      <c r="G13" s="50" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="15"/>
@@ -2217,18 +2229,18 @@
       <c r="A14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="22">
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="49">
         <v>0</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="15"/>
@@ -3297,7 +3309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13D4A04-C788-4B14-A8EB-6D7BE663C7E3}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/樊志强/2.编码进度表—樊志强.xlsx
+++ b/樊志强/2.编码进度表—樊志强.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitt\hgkj_01\樊志强\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7FE43A-D9F0-4ECC-ABAB-7E658058B69A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB59C1F4-9363-41DD-83E0-E5B243C2B51D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="465" windowWidth="20490" windowHeight="10695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="90" windowWidth="20490" windowHeight="10695" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊志强" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="93">
   <si>
     <t>整体模块</t>
   </si>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>权限管理</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>后期优化</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -212,39 +208,11 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>2019.06.25</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>019.06.25</t>
-    </r>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>工资查询</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>工资查询</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.06.25</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -467,15 +435,38 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>2019.07.01</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>2019.7.1</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2019.06.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <t>2019.07.03</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.07.03</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.3</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1043,7 +1034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1219,6 +1210,69 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1592,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1611,7 +1665,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -1648,266 +1702,276 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>41</v>
+      <c r="A3" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="63">
+        <v>1</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>41</v>
+      <c r="A4" s="64"/>
+      <c r="B4" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="63">
+        <v>1</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
+      <c r="A5" s="64"/>
+      <c r="B5" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="63">
+        <v>1</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
+      <c r="A6" s="64"/>
+      <c r="B6" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="63">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
+      <c r="A7" s="65"/>
+      <c r="B7" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="63">
+        <v>1</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
+      <c r="A8" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="63">
+        <v>1</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="22">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>41</v>
+      <c r="A9" s="67"/>
+      <c r="B9" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="76">
+        <v>1</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>74</v>
       </c>
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
+      <c r="A10" s="66"/>
+      <c r="B10" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="63">
+        <v>1</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="22">
-        <v>1</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>41</v>
+      <c r="A11" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="76">
+        <v>1</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>74</v>
       </c>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="22">
-        <v>1</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>41</v>
+      <c r="A12" s="69"/>
+      <c r="B12" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="76">
+        <v>1</v>
+      </c>
+      <c r="G12" s="77" t="s">
+        <v>74</v>
       </c>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="22">
-        <v>1</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>41</v>
+      <c r="A13" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="76">
+        <v>1</v>
+      </c>
+      <c r="G13" s="77" t="s">
+        <v>74</v>
       </c>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="22">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>8</v>
+      <c r="A14" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="76">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="77" t="s">
+        <v>61</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -1926,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3707D92E-61F7-4833-8287-5084CF6F899D}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1945,7 +2009,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -1982,266 +2046,276 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>41</v>
+      <c r="A3" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="63">
+        <v>1</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>41</v>
+      <c r="A4" s="64"/>
+      <c r="B4" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="63">
+        <v>1</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
+      <c r="A5" s="64"/>
+      <c r="B5" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="63">
+        <v>1</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
+      <c r="A6" s="64"/>
+      <c r="B6" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="63">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
+      <c r="A7" s="65"/>
+      <c r="B7" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="63">
+        <v>1</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
+      <c r="A8" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="63">
+        <v>1</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="49">
-        <v>1</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>41</v>
+      <c r="A9" s="67"/>
+      <c r="B9" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="76">
+        <v>1</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>74</v>
       </c>
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
+      <c r="A10" s="66"/>
+      <c r="B10" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="63">
+        <v>1</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="49">
-        <v>1</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>41</v>
+      <c r="A11" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="76">
+        <v>1</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>74</v>
       </c>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="49">
-        <v>1</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>41</v>
+      <c r="A12" s="69"/>
+      <c r="B12" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="76">
+        <v>1</v>
+      </c>
+      <c r="G12" s="77" t="s">
+        <v>74</v>
       </c>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="49">
-        <v>1</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>41</v>
+      <c r="A13" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="76">
+        <v>1</v>
+      </c>
+      <c r="G13" s="77" t="s">
+        <v>74</v>
       </c>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="49">
-        <v>0</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>8</v>
+      <c r="A14" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="76">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="77" t="s">
+        <v>61</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -2270,8 +2344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0384D6-2B24-439D-BB84-035F7C45464C}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2289,7 +2363,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -2336,16 +2410,16 @@
         <v>27</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3" s="13"/>
     </row>
@@ -2358,16 +2432,16 @@
         <v>28</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H4" s="13"/>
     </row>
@@ -2380,16 +2454,16 @@
         <v>29</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H5" s="13"/>
     </row>
@@ -2402,16 +2476,16 @@
         <v>30</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H6" s="13"/>
     </row>
@@ -2433,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H7" s="13"/>
     </row>
@@ -2457,14 +2531,14 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>23</v>
@@ -2476,10 +2550,10 @@
         <v>24</v>
       </c>
       <c r="F9" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H9" s="18"/>
     </row>
@@ -2501,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H10" s="13"/>
     </row>
@@ -2525,14 +2599,14 @@
         <v>1</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>24</v>
@@ -2547,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -2556,10 +2630,10 @@
         <v>20</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>24</v>
@@ -2571,27 +2645,31 @@
         <v>1</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>91</v>
+      </c>
       <c r="F14" s="22">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>38</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -2622,7 +2700,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2640,7 +2718,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -2678,53 +2756,57 @@
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+        <v>60</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>91</v>
+      </c>
       <c r="F3" s="49">
-        <v>0</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>38</v>
       </c>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37"/>
       <c r="B4" s="46" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="49">
         <v>1</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37"/>
       <c r="B5" s="46" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="48"/>
@@ -2732,39 +2814,39 @@
         <v>0</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="46" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F6" s="49">
         <v>0.8</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38"/>
       <c r="B7" s="46" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D7" s="48"/>
       <c r="E7" s="35"/>
@@ -2772,157 +2854,157 @@
         <v>0</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F8" s="49">
         <v>1</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40"/>
       <c r="B9" s="46" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F9" s="49">
         <v>1</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
       <c r="B10" s="46" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F10" s="49">
         <v>1</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F11" s="49">
         <v>1</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="41"/>
       <c r="B12" s="43" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F12" s="49">
         <v>1</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F13" s="49">
         <v>1</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
@@ -2930,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -2958,355 +3040,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824833B9-B9D9-4554-B40A-4DEFC72F3AF1}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="59"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="31">
-        <v>1</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="31">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="31">
-        <v>1</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="22">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="22">
-        <v>1</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="22">
-        <v>1</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="22">
-        <v>1</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="22">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13D4A04-C788-4B14-A8EB-6D7BE663C7E3}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3327,346 +3060,326 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="A1" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="13"/>
+      <c r="A3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="31">
+        <v>1</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="13"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="13"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="13"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="31">
+        <v>1</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="22">
-        <v>1</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="22">
-        <v>1</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="22">
-        <v>1</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="22">
-        <v>1</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="22">
-        <v>0</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>41</v>
-      </c>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="22">
-        <v>0</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0.7</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="22">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="15"/>
+      <c r="A15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3674,15 +3387,16 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA70935-08DC-4874-BF9B-F503B45C0051}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13D4A04-C788-4B14-A8EB-6D7BE663C7E3}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3700,7 +3414,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -3782,14 +3496,10 @@
       <c r="C5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
@@ -3860,17 +3570,17 @@
       <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>90</v>
+      <c r="D9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H9" s="13"/>
     </row>
@@ -3885,16 +3595,16 @@
         <v>23</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="22">
         <v>1</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -3906,17 +3616,17 @@
       <c r="C11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>26</v>
+      <c r="D11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="F11" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>38</v>
       </c>
       <c r="H11" s="15"/>
     </row>
@@ -3928,6 +3638,382 @@
       <c r="C12" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="D12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="22">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA70935-08DC-4874-BF9B-F503B45C0051}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="22">
@@ -3964,13 +4050,17 @@
       <c r="C14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>91</v>
+      </c>
       <c r="F14" s="22">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>38</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -3982,13 +4072,17 @@
       <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>91</v>
+      </c>
       <c r="F15" s="22">
-        <v>0</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>38</v>
       </c>
       <c r="H15" s="15"/>
     </row>
@@ -3997,16 +4091,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F16" s="22">
         <v>0.6</v>
@@ -4015,18 +4109,18 @@
         <v>8</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>

--- a/樊志强/2.编码进度表—樊志强.xlsx
+++ b/樊志强/2.编码进度表—樊志强.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitt\hgkj_01\樊志强\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB59C1F4-9363-41DD-83E0-E5B243C2B51D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02659706-7005-4417-8745-1DFDBCE9E875}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="90" windowWidth="20490" windowHeight="10695" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="825" windowWidth="20490" windowHeight="10695" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊志强" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="94">
   <si>
     <t>整体模块</t>
   </si>
@@ -467,6 +467,10 @@
   </si>
   <si>
     <t>2019.7.3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.07.04</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1193,6 +1197,69 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,69 +1277,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1647,7 +1651,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1664,16 +1668,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1702,275 +1706,275 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="63">
-        <v>1</v>
-      </c>
-      <c r="G3" s="60" t="s">
+      <c r="F3" s="57">
+        <v>1</v>
+      </c>
+      <c r="G3" s="54" t="s">
         <v>74</v>
       </c>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="63">
-        <v>1</v>
-      </c>
-      <c r="G4" s="60" t="s">
+      <c r="F4" s="57">
+        <v>1</v>
+      </c>
+      <c r="G4" s="54" t="s">
         <v>74</v>
       </c>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="61" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="63">
-        <v>1</v>
-      </c>
-      <c r="G5" s="60" t="s">
+      <c r="F5" s="57">
+        <v>1</v>
+      </c>
+      <c r="G5" s="54" t="s">
         <v>74</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="61" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="57">
         <v>0.9</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="54" t="s">
         <v>74</v>
       </c>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="61" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="63">
-        <v>1</v>
-      </c>
-      <c r="G7" s="60" t="s">
+      <c r="F7" s="57">
+        <v>1</v>
+      </c>
+      <c r="G7" s="54" t="s">
         <v>74</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="63">
-        <v>1</v>
-      </c>
-      <c r="G8" s="60" t="s">
+      <c r="F8" s="57">
+        <v>1</v>
+      </c>
+      <c r="G8" s="54" t="s">
         <v>74</v>
       </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="74" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="76">
-        <v>1</v>
-      </c>
-      <c r="G9" s="77" t="s">
+      <c r="F9" s="70">
+        <v>1</v>
+      </c>
+      <c r="G9" s="71" t="s">
         <v>74</v>
       </c>
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
-      <c r="B10" s="61" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="63">
-        <v>1</v>
-      </c>
-      <c r="G10" s="60" t="s">
+      <c r="F10" s="57">
+        <v>1</v>
+      </c>
+      <c r="G10" s="54" t="s">
         <v>74</v>
       </c>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="76">
-        <v>1</v>
-      </c>
-      <c r="G11" s="77" t="s">
+      <c r="F11" s="70">
+        <v>1</v>
+      </c>
+      <c r="G11" s="71" t="s">
         <v>74</v>
       </c>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="71" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="76">
-        <v>1</v>
-      </c>
-      <c r="G12" s="77" t="s">
+      <c r="F12" s="70">
+        <v>1</v>
+      </c>
+      <c r="G12" s="71" t="s">
         <v>74</v>
       </c>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="76">
-        <v>1</v>
-      </c>
-      <c r="G13" s="77" t="s">
+      <c r="F13" s="70">
+        <v>1</v>
+      </c>
+      <c r="G13" s="71" t="s">
         <v>74</v>
       </c>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="70">
         <v>0.8</v>
       </c>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="71" t="s">
         <v>61</v>
       </c>
       <c r="H14" s="15"/>
@@ -1990,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3707D92E-61F7-4833-8287-5084CF6F899D}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2008,16 +2012,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2046,275 +2050,275 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="63">
-        <v>1</v>
-      </c>
-      <c r="G3" s="60" t="s">
+      <c r="F3" s="57">
+        <v>1</v>
+      </c>
+      <c r="G3" s="54" t="s">
         <v>74</v>
       </c>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="63">
-        <v>1</v>
-      </c>
-      <c r="G4" s="60" t="s">
+      <c r="F4" s="57">
+        <v>1</v>
+      </c>
+      <c r="G4" s="54" t="s">
         <v>74</v>
       </c>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="61" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="63">
-        <v>1</v>
-      </c>
-      <c r="G5" s="60" t="s">
+      <c r="F5" s="57">
+        <v>1</v>
+      </c>
+      <c r="G5" s="54" t="s">
         <v>74</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="61" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="57">
         <v>0.9</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="54" t="s">
         <v>74</v>
       </c>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="61" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="63">
-        <v>1</v>
-      </c>
-      <c r="G7" s="60" t="s">
+      <c r="F7" s="57">
+        <v>1</v>
+      </c>
+      <c r="G7" s="54" t="s">
         <v>74</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="63">
-        <v>1</v>
-      </c>
-      <c r="G8" s="60" t="s">
+      <c r="F8" s="57">
+        <v>1</v>
+      </c>
+      <c r="G8" s="54" t="s">
         <v>74</v>
       </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="74" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="76">
-        <v>1</v>
-      </c>
-      <c r="G9" s="77" t="s">
+      <c r="F9" s="70">
+        <v>1</v>
+      </c>
+      <c r="G9" s="71" t="s">
         <v>74</v>
       </c>
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
-      <c r="B10" s="61" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="63">
-        <v>1</v>
-      </c>
-      <c r="G10" s="60" t="s">
+      <c r="F10" s="57">
+        <v>1</v>
+      </c>
+      <c r="G10" s="54" t="s">
         <v>74</v>
       </c>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="76">
-        <v>1</v>
-      </c>
-      <c r="G11" s="77" t="s">
+      <c r="F11" s="70">
+        <v>1</v>
+      </c>
+      <c r="G11" s="71" t="s">
         <v>74</v>
       </c>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="71" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="76">
-        <v>1</v>
-      </c>
-      <c r="G12" s="77" t="s">
+      <c r="F12" s="70">
+        <v>1</v>
+      </c>
+      <c r="G12" s="71" t="s">
         <v>74</v>
       </c>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="76">
-        <v>1</v>
-      </c>
-      <c r="G13" s="77" t="s">
+      <c r="F13" s="70">
+        <v>1</v>
+      </c>
+      <c r="G13" s="71" t="s">
         <v>74</v>
       </c>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="70">
         <v>0.8</v>
       </c>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="71" t="s">
         <v>61</v>
       </c>
       <c r="H14" s="15"/>
@@ -2344,7 +2348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0384D6-2B24-439D-BB84-035F7C45464C}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2362,16 +2366,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2659,16 +2663,16 @@
       <c r="C14" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="66" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="22">
         <v>1</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="54" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="15"/>
@@ -2700,7 +2704,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2717,16 +2721,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2764,16 +2768,16 @@
       <c r="C3" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="66" t="s">
         <v>91</v>
       </c>
       <c r="F3" s="49">
         <v>1</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="71" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="13"/>
@@ -2808,13 +2812,17 @@
       <c r="C5" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="D5" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>93</v>
+      </c>
       <c r="F5" s="49">
-        <v>0</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>38</v>
       </c>
       <c r="H5" s="13"/>
     </row>
@@ -3040,6 +3048,359 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824833B9-B9D9-4554-B40A-4DEFC72F3AF1}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="31">
+        <v>1</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="31">
+        <v>1</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13D4A04-C788-4B14-A8EB-6D7BE663C7E3}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3060,326 +3421,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="59"/>
+      <c r="A1" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="31">
-        <v>1</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="33"/>
+      <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="31">
-        <v>1</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="33"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="31">
-        <v>0.8</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="33"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="31">
-        <v>1</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="33"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>56</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="D12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="D13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="22">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="22">
-        <v>1</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="22">
-        <v>1</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="24" t="s">
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="22">
-        <v>1</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="D16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C17" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="23" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="22">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="H17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3387,16 +3768,15 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13D4A04-C788-4B14-A8EB-6D7BE663C7E3}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA70935-08DC-4874-BF9B-F503B45C0051}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3413,16 +3793,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3496,10 +3876,14 @@
       <c r="C5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
@@ -3532,13 +3916,17 @@
       <c r="C7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>93</v>
+      </c>
       <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>38</v>
       </c>
       <c r="H7" s="13"/>
     </row>
@@ -3552,13 +3940,17 @@
       <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>93</v>
+      </c>
       <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>38</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -3570,11 +3962,11 @@
       <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>23</v>
+      <c r="D9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
@@ -3595,10 +3987,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" s="22">
         <v>1</v>
@@ -3616,17 +4008,17 @@
       <c r="C11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>85</v>
+      <c r="D11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="F11" s="22">
-        <v>1</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>38</v>
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="H11" s="15"/>
     </row>
@@ -3638,17 +4030,13 @@
       <c r="C12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="22">
-        <v>1</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -3660,17 +4048,13 @@
       <c r="C13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="22">
-        <v>1</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -3682,12 +4066,16 @@
       <c r="C14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>91</v>
+      </c>
       <c r="F14" s="22">
-        <v>0</v>
-      </c>
-      <c r="G14" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="54" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="15"/>
@@ -3700,13 +4088,17 @@
       <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>91</v>
+      </c>
       <c r="F15" s="22">
-        <v>0</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>38</v>
       </c>
       <c r="H15" s="15"/>
     </row>
@@ -3721,18 +4113,20 @@
         <v>35</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F16" s="22">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
@@ -3760,383 +4154,6 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA70935-08DC-4874-BF9B-F503B45C0051}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="22">
-        <v>1</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="22">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="22">
-        <v>1</v>
-      </c>
-      <c r="G14" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="22">
-        <v>1</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="22">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/樊志强/2.编码进度表—樊志强.xlsx
+++ b/樊志强/2.编码进度表—樊志强.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitt\hgkj_01\樊志强\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02659706-7005-4417-8745-1DFDBCE9E875}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4236095E-7E7F-45A6-9F6C-91D38FA29611}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="825" windowWidth="20490" windowHeight="10695" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2703,8 +2703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE8D864-47D2-4263-8740-93CAADA3C084}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3331,55 +3331,55 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="22">
-        <v>1</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>38</v>
+      <c r="A13" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="70">
+        <v>1</v>
+      </c>
+      <c r="G13" s="71" t="s">
+        <v>74</v>
       </c>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>36</v>
+      <c r="A14" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>84</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="22">
+        <v>29</v>
+      </c>
+      <c r="F14" s="70">
         <v>0.5</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>8</v>
+      <c r="G14" s="71" t="s">
+        <v>61</v>
       </c>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -3403,7 +3403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13D4A04-C788-4B14-A8EB-6D7BE663C7E3}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
